--- a/tests/integration/data/Renderer012-ForEach-special/template.xlsx
+++ b/tests/integration/data/Renderer012-ForEach-special/template.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\siemi\aProjects\xlsx-renderer-2\tests\integration\data\Renderer012-ForEach-special\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A5EC997A-ABB1-4FEE-9003-266C8F449C1D}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0771BF14-1C2C-4AFF-A18F-F44B05B240EC}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="24580" windowHeight="14620" activeTab="2" xr2:uid="{51D64FAE-FDF3-4046-A668-3472FA61F864}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="27795" windowHeight="16440" activeTab="2" xr2:uid="{51D64FAE-FDF3-4046-A668-3472FA61F864}"/>
   </bookViews>
   <sheets>
     <sheet name="Most common for each" sheetId="1" r:id="rId1"/>
@@ -307,6 +307,61 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>2</xdr:col>
+      <xdr:colOff>923925</xdr:colOff>
+      <xdr:row>1</xdr:row>
+      <xdr:rowOff>9525</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>448088</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>76200</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="3" name="Picture 2">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{D6751FCC-D9EE-4EA0-B1BA-1FB0156AB41B}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1" cstate="print">
+          <a:extLst>
+            <a:ext uri="{28A0092B-C50C-407E-A947-70E740481C1C}">
+              <a14:useLocalDpi xmlns:a14="http://schemas.microsoft.com/office/drawing/2010/main" val="0"/>
+            </a:ext>
+          </a:extLst>
+        </a:blip>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="4714875" y="200025"/>
+          <a:ext cx="5077238" cy="3114675"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -612,14 +667,14 @@
       <selection activeCell="Q1" sqref="Q1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="10" width="10" customWidth="1"/>
-    <col min="11" max="16" width="13.6328125" customWidth="1"/>
+    <col min="11" max="16" width="13.5703125" customWidth="1"/>
     <col min="17" max="18" width="10" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -642,7 +697,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -673,7 +728,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>7</v>
       </c>
@@ -726,7 +781,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>24</v>
       </c>
@@ -779,12 +834,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q5" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>41</v>
       </c>
@@ -792,7 +847,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -845,22 +900,22 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="E10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>42</v>
       </c>
@@ -868,7 +923,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>43</v>
       </c>
@@ -876,7 +931,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>44</v>
       </c>
@@ -884,7 +939,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>45</v>
       </c>
@@ -892,7 +947,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>46</v>
       </c>
@@ -900,7 +955,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>47</v>
       </c>
@@ -908,7 +963,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>48</v>
       </c>
@@ -916,7 +971,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
         <v>49</v>
       </c>
@@ -924,27 +979,27 @@
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
       <c r="E22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>50</v>
       </c>
@@ -973,12 +1028,12 @@
       <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="16" width="16.54296875" customWidth="1"/>
+    <col min="1" max="16" width="16.5703125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>7</v>
       </c>
@@ -1031,7 +1086,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>24</v>
       </c>
@@ -1084,12 +1139,12 @@
         <v>40</v>
       </c>
     </row>
-    <row r="3" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q3" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>50</v>
       </c>
@@ -1097,7 +1152,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>24</v>
       </c>
@@ -1150,7 +1205,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>7</v>
       </c>
@@ -1203,7 +1258,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>24</v>
       </c>
@@ -1256,32 +1311,32 @@
         <v>40</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q8" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q9" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q10" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q11" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.25">
       <c r="Q12" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>50</v>
       </c>
@@ -1299,15 +1354,15 @@
   <dimension ref="A1:C24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:C1048576"/>
+      <selection activeCell="B20" sqref="B20"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="28.453125" customWidth="1"/>
+    <col min="1" max="3" width="28.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>52</v>
       </c>
@@ -1318,7 +1373,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>54</v>
       </c>
@@ -1329,7 +1384,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
         <v>55</v>
       </c>
@@ -1340,7 +1395,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>56</v>
       </c>
@@ -1351,7 +1406,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>57</v>
       </c>
@@ -1362,7 +1417,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>59</v>
       </c>
@@ -1373,7 +1428,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>60</v>
       </c>
@@ -1384,7 +1439,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>61</v>
       </c>
@@ -1395,7 +1450,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>62</v>
       </c>
@@ -1406,7 +1461,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
         <v>63</v>
       </c>
@@ -1417,7 +1472,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
         <v>64</v>
       </c>
@@ -1428,7 +1483,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
         <v>65</v>
       </c>
@@ -1439,7 +1494,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
         <v>66</v>
       </c>
@@ -1450,7 +1505,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
         <v>67</v>
       </c>
@@ -1461,7 +1516,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
         <v>68</v>
       </c>
@@ -1472,7 +1527,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
         <v>69</v>
       </c>
@@ -1483,7 +1538,7 @@
         <v>1</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
         <v>70</v>
       </c>
@@ -1494,32 +1549,32 @@
         <v>1</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C18" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C19" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C20" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C21" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="C22" t="s">
         <v>1</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
         <v>71</v>
       </c>
@@ -1527,12 +1582,13 @@
         <v>1</v>
       </c>
     </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>72</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>